--- a/data/case1/14/P1_14.xlsx
+++ b/data/case1/14/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.052052365863332284</v>
+        <v>0.064295737209334902</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996573991723</v>
+        <v>-0.0099999994348607402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996626506373</v>
+        <v>-0.0089999994423290985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399281671918786</v>
+        <v>0.28399031917826534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996751409768</v>
+        <v>-0.0059999994600161699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999665419864</v>
+        <v>-0.0059999994442243576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.015993386932073861</v>
+        <v>-0.019999999356564047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999596811868</v>
+        <v>-0.01999999935507546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029093583205520801</v>
+        <v>0.037648267317625717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.00599999964864395</v>
+        <v>-0.0059999994360069309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.01188937937354595</v>
+        <v>-0.0044999994449952396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999996470039285</v>
+        <v>-0.0059999994349948516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999996413528933</v>
+        <v>0.017995202500526553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999612869239</v>
+        <v>-0.011999999390829963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999996382931187</v>
+        <v>-0.0059999994264030576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999996370465603</v>
+        <v>-0.0059999994248971511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999996354278551</v>
+        <v>-0.0059999994227375453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999996216807432</v>
+        <v>-0.0089999994037626152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996611509481</v>
+        <v>-0.0089999994396992022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999996540388594</v>
+        <v>-0.060862730910654861</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.04444962366816263</v>
+        <v>-0.0089999994229161828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999996521226144</v>
+        <v>-0.0089999994224934099</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999996597285303</v>
+        <v>-0.0089999994387888194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999507543961</v>
+        <v>-0.041999999225865281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04199999950490696</v>
+        <v>-0.041999999222049667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999996653310461</v>
+        <v>-0.0059999994423129976</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999996643522735</v>
+        <v>-0.0059999994398820533</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999996606672212</v>
+        <v>-0.0059999994286306091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.025351340839039338</v>
+        <v>-0.01199999938399543</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999593739659</v>
+        <v>-0.019999999330829077</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999612717474</v>
+        <v>-0.01499999935724361</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999585411544</v>
+        <v>-0.017483236092560084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999652043897</v>
+        <v>-0.0059999994123254297</v>
       </c>
     </row>
   </sheetData>
